--- a/app/assets/上智大完全版振り分け.xlsx
+++ b/app/assets/上智大完全版振り分け.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukazu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hokudai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F52924E-15B7-4D17-BB76-854D08708325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC2275-C3DD-43AA-8F51-A7FF58163211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" firstSheet="18" activeTab="26" xr2:uid="{CF3D11F8-9EB2-4CBE-855A-4B4570D7708D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{CF3D11F8-9EB2-4CBE-855A-4B4570D7708D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="155">
   <si>
     <t>大平 泰広</t>
     <rPh sb="0" eb="2">
@@ -977,6 +977,328 @@
   </si>
   <si>
     <t>データ上ももう少し長い距離のパス成功させたい　</t>
+  </si>
+  <si>
+    <t>パス成功率</t>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出場時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パス成功数</t>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロングパス数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロングパス成功数</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロングパス成功率</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラストパス数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラストパス数/Game</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クロス数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クロス成功数</t>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クロス成功率</t>
+    <rPh sb="3" eb="6">
+      <t>セイコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>突破数/Game</t>
+    <rPh sb="0" eb="2">
+      <t>トッパ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボールロスト回数</t>
+    <rPh sb="6" eb="8">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュート数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シュート数/Game</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枠内シュート数</t>
+    <rPh sb="0" eb="2">
+      <t>ワクナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">枠内シュート数
+</t>
+    <rPh sb="0" eb="2">
+      <t>ワクナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>得点/Game</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タックル数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タックル数/Game</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロック数/Game</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスカット数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パスカット数
+</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抜かれた回数</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抜かれた回数
+/Game</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空中戦勝利数</t>
+    <rPh sb="0" eb="3">
+      <t>クウチュウセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空中戦勝率</t>
+    <rPh sb="0" eb="3">
+      <t>クウチュウセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>落下地点予測失敗数</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>落下地点予測失敗数/Game</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファール数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファール数/Game</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>被ファール数</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>被ファール数/Game</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1627,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F0D4AD-7C5C-49CB-8506-30248C828E12}">
   <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="Z15" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AO23" sqref="AO23:AP28"/>
     </sheetView>
   </sheetViews>
@@ -1802,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="e">
-        <f t="shared" ref="M2:M28" si="2">(L2/K2)*100</f>
+        <f t="shared" ref="M2:M27" si="2">(L2/K2)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N2" s="5">
@@ -1875,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="4" t="e">
-        <f t="shared" ref="AH2:AH28" si="3">(AG2/AF2)*100</f>
+        <f t="shared" ref="AH2:AH27" si="3">(AG2/AF2)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI2" s="5">
@@ -1937,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J28" si="4">I3/$E3*90</f>
+        <f t="shared" ref="J3:J27" si="4">I3/$E3*90</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
@@ -1954,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O28" si="5">N3/$E3*90</f>
+        <f t="shared" ref="O3:O27" si="5">N3/$E3*90</f>
         <v>0</v>
       </c>
       <c r="P3" s="5">
         <v>4</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q28" si="6">P3/$E3*90</f>
+        <f t="shared" ref="Q3:Q27" si="6">P3/$E3*90</f>
         <v>5.4000000000000012</v>
       </c>
       <c r="R3" s="5">
         <v>0</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S28" si="7">R3/$E3*90</f>
+        <f t="shared" ref="S3:S27" si="7">R3/$E3*90</f>
         <v>0</v>
       </c>
       <c r="T3" s="5">
@@ -1989,14 +2311,14 @@
         <v>1</v>
       </c>
       <c r="Y3" s="4">
-        <f t="shared" ref="Y3:Y28" si="9">X3/$E3*90</f>
+        <f t="shared" ref="Y3:Y27" si="9">X3/$E3*90</f>
         <v>1.3500000000000003</v>
       </c>
       <c r="Z3" s="5">
         <v>1</v>
       </c>
       <c r="AA3" s="4">
-        <f t="shared" ref="AA3:AA28" si="10">Z3/$E3*90</f>
+        <f t="shared" ref="AA3:AA27" si="10">Z3/$E3*90</f>
         <v>1.3500000000000003</v>
       </c>
       <c r="AB3" s="4">
@@ -2027,21 +2349,21 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="4">
-        <f t="shared" ref="AJ3:AJ28" si="12">AI3/$E3*90</f>
+        <f t="shared" ref="AJ3:AJ27" si="12">AI3/$E3*90</f>
         <v>0</v>
       </c>
       <c r="AK3" s="6">
         <v>0</v>
       </c>
       <c r="AL3" s="4">
-        <f t="shared" ref="AL3:AL28" si="13">AK3/$E3*90</f>
+        <f t="shared" ref="AL3:AL27" si="13">AK3/$E3*90</f>
         <v>0</v>
       </c>
       <c r="AM3" s="7">
         <v>1</v>
       </c>
       <c r="AN3" s="4">
-        <f t="shared" ref="AN3:AN28" si="14">AM3/$E3*90</f>
+        <f t="shared" ref="AN3:AN27" si="14">AM3/$E3*90</f>
         <v>1.3500000000000003</v>
       </c>
       <c r="AO3" s="19" t="s">
@@ -4291,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" ref="U19:W28" si="15">T19/$E19*90</f>
+        <f t="shared" ref="U19:W27" si="15">T19/$E19*90</f>
         <v>0</v>
       </c>
       <c r="V19" s="4">
@@ -4319,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="4">
-        <f t="shared" ref="AC19:AE28" si="16">AB19/$E19*90</f>
+        <f t="shared" ref="AC19:AE27" si="16">AB19/$E19*90</f>
         <v>1.5</v>
       </c>
       <c r="AD19" s="3">
@@ -5607,7 +5929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F7E651-4BFE-41D9-AA61-2470CEE681B6}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5657,121 +5981,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -5914,7 +6238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79219F55-1450-4F8F-B064-94BDD0ED17BD}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5964,121 +6290,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -6225,7 +6551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D338988-29FE-4525-A035-E86C00F7E6CC}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6275,121 +6603,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -6536,7 +6864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DC9ABE-1CB5-42D6-8B89-CCB156FB8F10}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6586,121 +6916,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -6847,7 +7177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A614D7D-1EBD-4678-B789-D6AFBE4EB71F}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6897,121 +7229,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -7158,7 +7490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E877955-E7D7-45E1-ABF3-5DD01CC70928}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7208,121 +7542,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -7469,7 +7803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2429F010-4026-49C0-9967-D76A57FD0E29}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7519,121 +7855,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -7642,7 +7978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="80.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:42" ht="70.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -7780,7 +8116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBE7461-D1C2-49BD-AAEA-C111D124358A}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7830,121 +8168,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -8091,7 +8429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB039EE-BC15-4B6B-BE04-EE1DE3219083}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8141,121 +8481,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -8402,7 +8742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61399BB5-C2EA-4236-B165-F7F5B16D3358}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8452,121 +8794,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -8713,7 +9055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06495181-1DFB-426B-AADC-3DC11676D00A}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8763,121 +9107,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -9024,7 +9368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E9A637-8A83-44A4-90A2-C505B3FCE8C7}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -9074,121 +9420,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -9335,7 +9681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA8EC4D-B438-4C74-897B-C549EAD33D46}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -9385,121 +9733,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -9646,7 +9994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E492-A88A-4C60-AA3E-FDE3253BBBB7}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -9696,121 +10046,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -9957,7 +10307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094FDBBC-2728-4735-B58B-BCBA1239ADB5}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -10007,121 +10359,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -10268,7 +10620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34888F2C-8D6E-4645-8866-EAF90E594066}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -10318,121 +10672,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -10579,7 +10933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A0A6A2-5770-40B5-B57E-4A3C9B73AECB}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -10629,121 +10985,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -10890,7 +11246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253CB086-2842-4A4E-A826-B60331EEEDE9}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -10940,121 +11298,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -11201,7 +11559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96A3FA-1C86-435B-AD29-E278772200FB}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11251,121 +11611,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -11512,7 +11872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9142BE75-1405-4C92-BB80-2C2BB6736AF6}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11562,121 +11924,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -11763,7 +12125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503D2307-E6AC-462C-A9E5-C04202DC6640}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11813,121 +12177,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -12074,7 +12438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8442836-4C95-4C12-9D91-B6E6C919A5FD}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -12124,121 +12490,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -12385,7 +12751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66051A70-3C26-4B7F-B08A-ECD019AE136D}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -12435,121 +12803,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -12696,7 +13064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3211434C-29B7-4941-A2EC-162A52CC367D}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -12746,121 +13116,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -13007,7 +13377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F98DE32-4715-45A9-8BDD-5BB5FC872788}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13057,121 +13429,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -13318,7 +13690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D2E929-7483-429E-9D14-1F044455A7CC}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13368,121 +13742,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
@@ -13629,7 +14003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A89E4B8-9714-40F2-B1F2-49AF3EE153C1}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13679,121 +14055,121 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="22" t="s">
         <v>87</v>
